--- a/Supporting Data/Market_Price_Summary_Table1.xlsx
+++ b/Supporting Data/Market_Price_Summary_Table1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\OneDrive - Washington State University (email.wsu.edu)\Bugflow_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\Supporting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Validation_Results" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Market Price_Table1_5MWh" sheetId="6" r:id="rId5"/>
     <sheet name="Market Price_Table1_30MWh" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1130,7 +1130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1474,6 +1480,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1484,15 +1493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1513,7 +1513,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3447,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H2:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP6" sqref="AP6"/>
+    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,6 +3470,7 @@
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="13" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
     <col min="34" max="34" width="36.28515625" customWidth="1"/>
     <col min="35" max="35" width="38.42578125" customWidth="1"/>
   </cols>
@@ -3527,14 +3540,6 @@
       <c r="M5" s="14">
         <v>-29734</v>
       </c>
-      <c r="T5">
-        <f>42/25</f>
-        <v>1.68</v>
-      </c>
-      <c r="U5">
-        <f>42/26</f>
-        <v>1.6153846153846154</v>
-      </c>
       <c r="AG5" s="30" t="s">
         <v>55</v>
       </c>
@@ -3563,10 +3568,6 @@
       </c>
       <c r="M6" s="14">
         <v>-35286</v>
-      </c>
-      <c r="Z6">
-        <f xml:space="preserve"> 48/35</f>
-        <v>1.3714285714285714</v>
       </c>
       <c r="AG6" s="22">
         <v>1</v>
@@ -3882,13 +3883,13 @@
       <c r="V18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="62">
         <v>20</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="62">
         <v>-0.6</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="62">
         <v>30</v>
       </c>
       <c r="AG18" s="26">
@@ -3926,13 +3927,13 @@
       <c r="V19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="63">
         <v>23</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="63">
         <v>-1.2</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Y19" s="63">
         <v>35</v>
       </c>
       <c r="AG19" s="28"/>
@@ -3962,13 +3963,13 @@
       <c r="V20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="W20" s="16">
+      <c r="W20" s="63">
         <v>30</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="63">
         <v>-1</v>
       </c>
-      <c r="Y20" s="16">
+      <c r="Y20" s="63">
         <v>44</v>
       </c>
     </row>
@@ -3997,13 +3998,13 @@
       <c r="V21" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="63">
         <v>37</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="63">
         <v>-1.5</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y21" s="63">
         <v>54</v>
       </c>
     </row>
@@ -4032,13 +4033,13 @@
       <c r="V22" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W22" s="63">
         <v>48</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22" s="63">
         <v>-1.6</v>
       </c>
-      <c r="Y22" s="16">
+      <c r="Y22" s="63">
         <v>70</v>
       </c>
     </row>
@@ -4067,13 +4068,13 @@
       <c r="V23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="16">
+      <c r="W23" s="63">
         <v>42</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="63">
         <v>-1.4</v>
       </c>
-      <c r="Y23" s="16">
+      <c r="Y23" s="63">
         <v>61</v>
       </c>
     </row>
@@ -4102,13 +4103,13 @@
       <c r="V24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="W24" s="16">
+      <c r="W24" s="63">
         <v>25</v>
       </c>
-      <c r="X24" s="16">
+      <c r="X24" s="63">
         <v>-1</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="Y24" s="63">
         <v>37</v>
       </c>
     </row>
@@ -4137,13 +4138,13 @@
       <c r="V25" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="W25" s="16">
+      <c r="W25" s="63">
         <v>26</v>
       </c>
-      <c r="X25" s="16">
+      <c r="X25" s="63">
         <v>-0.8</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="Y25" s="63">
         <v>38</v>
       </c>
     </row>
@@ -4171,16 +4172,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -4203,16 +4204,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="52" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="34" t="s">
@@ -4223,12 +4224,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="34" t="s">
         <v>58</v>
       </c>
@@ -4237,12 +4238,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="34" t="s">
         <v>72</v>
       </c>
@@ -4251,12 +4252,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="34" t="s">
         <v>74</v>
       </c>
@@ -4265,12 +4266,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="33">
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="34" t="s">
@@ -4281,12 +4282,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="33">
         <v>0</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="34" t="s">
         <v>58</v>
       </c>
@@ -4295,12 +4296,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="33">
         <v>0</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="34" t="s">
         <v>72</v>
       </c>
@@ -4309,12 +4310,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="33">
         <v>0</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="34" t="s">
         <v>74</v>
       </c>
@@ -4323,16 +4324,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="33">
         <v>1</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="52" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -4343,12 +4344,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="33">
         <v>1</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="34" t="s">
         <v>58</v>
       </c>
@@ -4357,12 +4358,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="33">
         <v>1</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="34" t="s">
         <v>72</v>
       </c>
@@ -4371,12 +4372,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="33">
         <v>1</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="34" t="s">
         <v>74</v>
       </c>
@@ -4385,12 +4386,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="33">
         <v>1</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="34" t="s">
@@ -4401,12 +4402,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="33">
         <v>1</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="34" t="s">
         <v>58</v>
       </c>
@@ -4415,12 +4416,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="33">
         <v>1</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="34" t="s">
         <v>72</v>
       </c>
@@ -4429,12 +4430,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="33">
         <v>0</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="34" t="s">
         <v>74</v>
       </c>
@@ -4443,16 +4444,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="33">
         <v>2</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="52" t="s">
         <v>96</v>
       </c>
       <c r="E21" s="34" t="s">
@@ -4463,12 +4464,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="33">
         <v>2</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="34" t="s">
         <v>58</v>
       </c>
@@ -4477,12 +4478,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="33">
         <v>1</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="34" t="s">
         <v>72</v>
       </c>
@@ -4491,12 +4492,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="33">
         <v>1</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="34" t="s">
         <v>74</v>
       </c>
@@ -4505,12 +4506,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="33">
         <v>1</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="34" t="s">
@@ -4521,12 +4522,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="33">
         <v>1</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="34" t="s">
         <v>58</v>
       </c>
@@ -4535,12 +4536,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="33">
         <v>1</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="34" t="s">
         <v>72</v>
       </c>
@@ -4549,12 +4550,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33">
         <v>1</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="34" t="s">
         <v>74</v>
       </c>
@@ -4563,16 +4564,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="33">
         <v>2</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="52" t="s">
         <v>96</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -4583,12 +4584,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="33">
         <v>1</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="34" t="s">
         <v>58</v>
       </c>
@@ -4597,12 +4598,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="33">
         <v>1</v>
       </c>
-      <c r="D31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="34" t="s">
         <v>72</v>
       </c>
@@ -4611,12 +4612,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="33">
         <v>1</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="34" t="s">
         <v>74</v>
       </c>
@@ -4625,12 +4626,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="33">
         <v>1</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="52" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="34" t="s">
@@ -4641,12 +4642,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="33">
         <v>1</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="34" t="s">
         <v>58</v>
       </c>
@@ -4655,12 +4656,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="33">
         <v>1</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="34" t="s">
         <v>72</v>
       </c>
@@ -4669,12 +4670,12 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="33">
         <v>1</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="34" t="s">
         <v>74</v>
       </c>
@@ -4684,12 +4685,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D12"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:B36"/>
     <mergeCell ref="D29:D32"/>
@@ -4702,6 +4697,12 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4711,7 +4712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4749,27 +4750,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="30">
         <v>4</v>
       </c>
@@ -4799,10 +4800,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>19.87</v>
       </c>
       <c r="D7" s="37">
@@ -4834,8 +4835,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="38">
         <f>D7/$C$7</f>
         <v>1.7614494212380472E-2</v>
@@ -4873,10 +4874,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>18.16</v>
       </c>
       <c r="D9" s="37">
@@ -4908,8 +4909,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="38">
         <f>D9/$C$9</f>
         <v>1.1013215859030838E-2</v>
@@ -4947,10 +4948,10 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>18.43</v>
       </c>
       <c r="D11" s="37">
@@ -4982,8 +4983,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="38">
         <f>D11/$C$11</f>
         <v>2.3331524688008681E-2</v>
@@ -5021,10 +5022,10 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>20.100000000000001</v>
       </c>
       <c r="D13" s="37">
@@ -5056,8 +5057,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="38">
         <f>D13/$C$13</f>
         <v>1.5422885572139302E-2</v>
@@ -5095,10 +5096,10 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="57">
         <v>25.32</v>
       </c>
       <c r="D15" s="37">
@@ -5130,8 +5131,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="38">
         <f>D15/$C$15</f>
         <v>2.7646129541864135E-2</v>
@@ -5169,10 +5170,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>25.47</v>
       </c>
       <c r="D17" s="37">
@@ -5204,8 +5205,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="38">
         <f>D17/$C$17</f>
         <v>2.4734982332155479E-2</v>
@@ -5243,10 +5244,10 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>23.56</v>
       </c>
       <c r="D19" s="37">
@@ -5278,8 +5279,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="38">
         <f>D19/$C$19</f>
         <v>9.7623089983022073E-3</v>
@@ -5317,10 +5318,10 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>21.82</v>
       </c>
       <c r="D21" s="37">
@@ -5352,8 +5353,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="38">
         <f>D21/$C$21</f>
         <v>1.924839596700275E-2</v>
@@ -5450,6 +5451,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C9:C10"/>
@@ -5464,11 +5470,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5514,27 +5515,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="36">
         <v>4</v>
       </c>
@@ -6220,6 +6221,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
@@ -6234,11 +6240,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
